--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value851.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value851.xlsx
@@ -354,7 +354,7 @@
         <v>1.821257735754956</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.131086407070543</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value851.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value851.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8420116246506136</v>
+        <v>0.7008573412895203</v>
       </c>
       <c r="B1">
-        <v>1.821257735754956</v>
+        <v>1.132298588752747</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.882263660430908</v>
       </c>
       <c r="D1">
-        <v>2.131086407070543</v>
+        <v>3.3177330493927</v>
       </c>
       <c r="E1">
-        <v>1.376999410590356</v>
+        <v>1.790637254714966</v>
       </c>
     </row>
   </sheetData>
